--- a/src/testCase/c_useCase_file/Aerocheck/initialize/自动化测试用例模板.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/initialize/自动化测试用例模板.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -27,6 +27,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -36,6 +37,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -51,6 +53,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -60,6 +63,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -75,6 +79,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -84,6 +89,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -99,6 +105,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -108,6 +115,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -123,6 +131,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -132,6 +141,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -149,6 +159,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -158,6 +169,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -176,6 +188,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -185,10 +198,39 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 在被测模块可能有嵌套窗口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+警告弹窗
+信息窗口
+控件文本</t>
         </r>
       </text>
     </comment>
@@ -203,7 +245,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>在执行每条用例前都会需要初始化模块</t>
+          <t>在执行每条用例前都会需要初始化模块
+整个被测模块</t>
         </r>
       </text>
     </comment>
@@ -274,7 +317,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,13 +353,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -682,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="51.6" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/testCase/c_useCase_file/Aerocheck/initialize/自动化测试用例模板.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/initialize/自动化测试用例模板.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8018"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -316,7 +317,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -431,7 +432,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -719,22 +720,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="51.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="51.6" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="4"/>
-    <col min="2" max="2" width="38.265625" style="2" customWidth="1"/>
-    <col min="3" max="7" width="9.06640625" style="3"/>
-    <col min="8" max="8" width="22.265625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="9.06640625" style="3"/>
-    <col min="11" max="13" width="9.06640625" style="4"/>
-    <col min="14" max="14" width="9.06640625" style="3"/>
+    <col min="1" max="1" width="9.125" style="4"/>
+    <col min="2" max="2" width="38.25" style="2" customWidth="1"/>
+    <col min="3" max="7" width="9.125" style="3"/>
+    <col min="8" max="8" width="22.25" style="3" customWidth="1"/>
+    <col min="9" max="10" width="9.125" style="3"/>
+    <col min="11" max="13" width="9.125" style="4"/>
+    <col min="14" max="14" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,44 +779,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="51.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="51.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:14" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="51.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:14" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="51.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:14" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="51.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:14" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="51.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:14" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="51.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -832,4 +833,18 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/testCase/c_useCase_file/Aerocheck/initialize/自动化测试用例模板.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/initialize/自动化测试用例模板.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="控件属操作方法" sheetId="1" r:id="rId1"/>
+    <sheet name="控件属性已经操作方法" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -255,8 +255,158 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+文本框
+按钮
+下拉框
+单选框
+勾选框
+坐标--文本框</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+方式一：self.dlg_spec.Edit4.set_text(LayerThan2)
+方式二：
+self.dlg_spec.child_window(title="均  值",class_name="Button")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+通用
+特殊一
+特殊二</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+路径弹窗
+增加许用值曲线</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+警告弹窗</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,6 +461,62 @@
   </si>
   <si>
     <t>操作子窗口标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作控件后等待时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有弹窗出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗中输入文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭弹窗按钮名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有嵌套弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗关闭按钮名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -412,6 +618,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -720,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="51.6" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -836,15 +1045,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/testCase/c_useCase_file/Aerocheck/initialize/自动化测试用例模板.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/initialize/自动化测试用例模板.xlsx
@@ -381,7 +381,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>在执行每条用例前都会需要初始化模块</t>
+          <t>整个被测模块</t>
         </r>
       </text>
     </comment>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="71">
   <si>
     <t>用例编号</t>
   </si>
@@ -663,6 +663,10 @@
   </si>
   <si>
     <t>测试结果等待时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个被测模块</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -801,7 +805,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -863,6 +867,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2149,7 +2156,7 @@
   <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -2352,8 +2359,8 @@
       <c r="AC2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="7" t="s">
-        <v>22</v>
+      <c r="AD2" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="AE2" s="7">
         <v>2</v>

--- a/src/testCase/c_useCase_file/Aerocheck/initialize/自动化测试用例模板.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/initialize/自动化测试用例模板.xlsx
@@ -2156,7 +2156,7 @@
   <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -2607,15 +2607,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2">
-      <formula1>"信息窗口,警告弹出,控件文本"</formula1>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">
+      <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA1048576 Z1:Z1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z1048576">
       <formula1>"执行,不执行"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1">
-      <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/testCase/c_useCase_file/Aerocheck/initialize/自动化测试用例模板.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/initialize/自动化测试用例模板.xlsx
@@ -2155,8 +2155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>

--- a/src/testCase/c_useCase_file/Aerocheck/initialize/自动化测试用例模板.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/initialize/自动化测试用例模板.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Aerobook\src\testCase\c_useCase_file\Aerocheck\金属结构强度校核\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Aerobook\src\testCase\c_useCase_file\Aerocheck\initialize\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -271,12 +271,13 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -286,6 +287,7 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -295,12 +297,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -310,6 +313,7 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -321,12 +325,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -336,6 +341,7 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -348,12 +354,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -363,6 +370,7 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -372,17 +380,64 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0">
+    <comment ref="AB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>在执行每条用例前都会需要初始化模块</t>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+警告弹窗
+信息窗口
+控件文本</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在执行每条用例前都会需要初始化模块
+整个被测模块</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>实际值如果需要从控件中获取
+检查主窗口标题；子窗口标题；唯一标识；唯一标识方法；所操作实例
+例子：</t>
         </r>
       </text>
     </comment>
@@ -516,7 +571,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="138">
   <si>
     <t>用例编号</t>
   </si>
@@ -582,9 +637,6 @@
   </si>
   <si>
     <t>关闭按钮</t>
-  </si>
-  <si>
-    <t>预期结果文本信息</t>
   </si>
   <si>
     <t>用例状态</t>
@@ -865,6 +917,215 @@
       </rPr>
       <t>铺层库优化</t>
     </r>
+  </si>
+  <si>
+    <t>预期结果文本信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>材料信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="1"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定义复合材料参数</t>
+    </r>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在模块</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值-创建材料许用值按钮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值关闭按钮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值曲线--曲线名称文本框</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值曲线--曲线坐标文本框，第一横行X竖行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值曲线--曲线坐标文本框，第一横行Y竖行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值曲线--曲线坐标文本框，第二横行X竖行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值曲线--曲线坐标文本框，第二横行Y竖行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值曲线--曲线坐标文本框，第三横行X竖行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值曲线--曲线坐标文本框，第三横行Y竖行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值曲线--曲线坐标文本框，第四横行X竖行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值曲线--曲线坐标文本框，第四横行Y竖行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值曲线--确认按钮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值曲线--关闭按钮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉伸对应增加按钮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩对应增加按钮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪切对应增加按钮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义材料许用值选择结构单元按钮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义材料许用值确认按钮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义材料许用值查看按钮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义材料许用值关闭按钮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值控件标识属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作窗口标题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作子窗口标题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化级别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果等待时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块唯一标识</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xyz001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、在编辑材料许用值工作栏中，正常创建材料许用值曲线；</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料信息-&gt;定义复合材料参数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ta</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义材料许用值；定义材料许用值；Edit1；方式一；窗口一</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值曲线弹窗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个被测模块</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件文本；信息窗口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试1；ts(1)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -981,7 +1242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1004,11 +1265,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1076,6 +1350,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1403,487 +1686,487 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AB1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="AE1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="AC2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AE2" s="7">
         <v>2</v>
       </c>
       <c r="AF2" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="7"/>
     </row>
     <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="Z3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AA3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="AC3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AE3" s="7">
         <v>2</v>
       </c>
       <c r="AF3" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG3" s="4"/>
     </row>
     <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3">
         <v>-1</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="X4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB4" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="AC4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AE4" s="7">
         <v>2</v>
       </c>
       <c r="AF4" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG4" s="4"/>
     </row>
     <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3">
         <v>1.2E-2</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="X5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AA5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB5" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="AC5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AE5" s="7">
         <v>2</v>
       </c>
       <c r="AF5" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG5" s="4"/>
     </row>
@@ -1950,7 +2233,7 @@
     </row>
     <row r="2" spans="1:22" ht="40.5" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1976,7 +2259,7 @@
     </row>
     <row r="3" spans="1:22" ht="40.5" customHeight="1">
       <c r="A3" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -2002,7 +2285,7 @@
     </row>
     <row r="4" spans="1:22" ht="40.5" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -2028,7 +2311,7 @@
     </row>
     <row r="5" spans="1:22" ht="40.5" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -2054,7 +2337,7 @@
     </row>
     <row r="6" spans="1:22" ht="40.5" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -2080,7 +2363,7 @@
     </row>
     <row r="7" spans="1:22" ht="40.5" customHeight="1">
       <c r="A7" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2106,7 +2389,7 @@
     </row>
     <row r="8" spans="1:22" ht="40.5" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -2132,7 +2415,7 @@
     </row>
     <row r="9" spans="1:22" ht="40.5" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2158,7 +2441,7 @@
     </row>
     <row r="10" spans="1:22" ht="40.5" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -2184,7 +2467,7 @@
     </row>
     <row r="11" spans="1:22" ht="40.5" customHeight="1">
       <c r="A11" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -2210,7 +2493,7 @@
     </row>
     <row r="12" spans="1:22" ht="40.5" customHeight="1">
       <c r="A12" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -2236,7 +2519,7 @@
     </row>
     <row r="13" spans="1:22" ht="40.5" customHeight="1">
       <c r="A13" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -2262,7 +2545,7 @@
     </row>
     <row r="14" spans="1:22" ht="40.5" customHeight="1">
       <c r="A14" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -2288,7 +2571,7 @@
     </row>
     <row r="15" spans="1:22" ht="40.5" customHeight="1">
       <c r="A15" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -2332,8 +2615,845 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20" style="4" customWidth="1"/>
+    <col min="4" max="21" width="5" style="4" customWidth="1"/>
+    <col min="22" max="22" width="6.75" style="4" customWidth="1"/>
+    <col min="23" max="23" width="5" style="4" customWidth="1"/>
+    <col min="24" max="24" width="13.875" style="4" customWidth="1"/>
+    <col min="25" max="25" width="15.375" style="4" customWidth="1"/>
+    <col min="26" max="26" width="9" style="9"/>
+    <col min="27" max="27" width="6" style="4" customWidth="1"/>
+    <col min="28" max="31" width="6" style="5" customWidth="1"/>
+    <col min="32" max="32" width="7.625" style="23" customWidth="1"/>
+    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
+    <col min="34" max="16384" width="10.875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="183.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" customFormat="1" ht="79.5" customHeight="1">
+      <c r="A2" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>4500</v>
+      </c>
+      <c r="I2" s="4">
+        <v>10</v>
+      </c>
+      <c r="J2" s="4">
+        <v>4500</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="X2" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z2" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="3"/>
+    </row>
+    <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="3"/>
+    </row>
+    <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="3"/>
+    </row>
+    <row r="6" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="3"/>
+    </row>
+    <row r="7" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="3"/>
+    </row>
+    <row r="8" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="3"/>
+    </row>
+    <row r="9" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="3"/>
+    </row>
+    <row r="10" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="3"/>
+    </row>
+    <row r="11" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="3"/>
+    </row>
+    <row r="13" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="4"/>
+    </row>
+    <row r="14" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="4"/>
+    </row>
+    <row r="15" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="4"/>
+    </row>
+    <row r="16" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="4"/>
+    </row>
+    <row r="17" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="23"/>
+      <c r="AG17" s="4"/>
+    </row>
+    <row r="18" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="4"/>
+    </row>
+    <row r="19" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA12">
+      <formula1>"信息窗口,警告弹出,控件文本"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA13:AA1048576 AG3:AG1048576 Y1">
+      <formula1>"执行,不执行"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG19"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -2364,98 +3484,98 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="AB1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A2" s="2"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
@@ -2490,9 +3610,9 @@
       <c r="AG2" s="7"/>
     </row>
     <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A3" s="2"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="13"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="6"/>
@@ -2525,7 +3645,7 @@
       <c r="AG3" s="4"/>
     </row>
     <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A4" s="2"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
@@ -2560,7 +3680,7 @@
       <c r="AG4" s="4"/>
     </row>
     <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A5" s="2"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
@@ -2595,7 +3715,7 @@
       <c r="AG5" s="4"/>
     </row>
     <row r="6" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A6" s="2"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
@@ -2630,7 +3750,7 @@
       <c r="AG6" s="4"/>
     </row>
     <row r="7" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A7" s="2"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
@@ -2665,10 +3785,10 @@
       <c r="AG7" s="4"/>
     </row>
     <row r="8" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A8" s="2"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="14"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -2700,7 +3820,7 @@
       <c r="AG8" s="4"/>
     </row>
     <row r="9" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A9" s="2"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
@@ -2735,7 +3855,7 @@
       <c r="AG9" s="4"/>
     </row>
     <row r="10" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A10" s="2"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
@@ -2770,7 +3890,7 @@
       <c r="AG10" s="4"/>
     </row>
     <row r="11" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A11" s="2"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
@@ -2805,7 +3925,7 @@
       <c r="AG11" s="4"/>
     </row>
     <row r="12" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
@@ -3086,781 +4206,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA12">
-      <formula1>"信息窗口,警告弹出,控件文本"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA13:AA1048576 Z1:Z1048576">
-      <formula1>"执行,不执行"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1">
-      <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K2" sqref="A2:XFD13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="8.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="30.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20" style="4" customWidth="1"/>
-    <col min="4" max="21" width="5" style="4" customWidth="1"/>
-    <col min="22" max="22" width="6.75" style="4" customWidth="1"/>
-    <col min="23" max="24" width="5" style="4" customWidth="1"/>
-    <col min="25" max="25" width="31.625" style="4" customWidth="1"/>
-    <col min="26" max="26" width="5.25" style="4" customWidth="1"/>
-    <col min="27" max="27" width="6" style="4" customWidth="1"/>
-    <col min="28" max="31" width="6" style="5" customWidth="1"/>
-    <col min="32" max="32" width="7.625" style="23" customWidth="1"/>
-    <col min="33" max="33" width="6.625" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="10.875" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="22"/>
-      <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="4"/>
-    </row>
-    <row r="11" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="22"/>
-      <c r="AG11" s="4"/>
-    </row>
-    <row r="12" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="4"/>
-    </row>
-    <row r="13" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="23"/>
-      <c r="AG13" s="4"/>
-    </row>
-    <row r="14" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="4"/>
-    </row>
-    <row r="16" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="4"/>
-    </row>
-    <row r="17" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="4"/>
-    </row>
-    <row r="18" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="4"/>
-    </row>
-    <row r="19" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1">
       <formula1>"执行,不执行"</formula1>

--- a/src/testCase/c_useCase_file/Aerocheck/initialize/自动化测试用例模板.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/initialize/自动化测试用例模板.xlsx
@@ -424,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0">
+    <comment ref="AF1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2616,7 +2616,7 @@
   <dimension ref="A1:AG19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+      <selection activeCell="AH1" sqref="AH1:AH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -2632,8 +2632,8 @@
     <col min="26" max="26" width="9" style="9"/>
     <col min="27" max="27" width="6" style="4" customWidth="1"/>
     <col min="28" max="31" width="6" style="5" customWidth="1"/>
-    <col min="32" max="32" width="7.625" style="23" customWidth="1"/>
-    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
+    <col min="32" max="32" width="13.5" style="4" customWidth="1"/>
+    <col min="33" max="33" width="7.625" style="23" customWidth="1"/>
     <col min="34" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
@@ -2731,11 +2731,11 @@
       <c r="AE1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:33" customFormat="1" ht="79.5" customHeight="1">
@@ -2832,10 +2832,10 @@
       <c r="AE2" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="AG2" s="7"/>
     </row>
     <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="2"/>
@@ -2869,8 +2869,8 @@
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="22"/>
     </row>
     <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="2"/>
@@ -2904,8 +2904,8 @@
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="22"/>
     </row>
     <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="2"/>
@@ -2939,8 +2939,8 @@
       <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="22"/>
     </row>
     <row r="6" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="2"/>
@@ -2974,8 +2974,8 @@
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="22"/>
     </row>
     <row r="7" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="2"/>
@@ -3009,8 +3009,8 @@
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
-      <c r="AF7" s="22"/>
-      <c r="AG7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="22"/>
     </row>
     <row r="8" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="2"/>
@@ -3044,8 +3044,8 @@
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="22"/>
     </row>
     <row r="9" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="2"/>
@@ -3079,8 +3079,8 @@
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="22"/>
     </row>
     <row r="10" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A10" s="2"/>
@@ -3114,8 +3114,8 @@
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="22"/>
     </row>
     <row r="11" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A11" s="2"/>
@@ -3149,8 +3149,8 @@
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
-      <c r="AF11" s="22"/>
-      <c r="AG11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="22"/>
     </row>
     <row r="12" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A12" s="2"/>
@@ -3184,8 +3184,8 @@
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="22"/>
     </row>
     <row r="13" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A13" s="3"/>
@@ -3219,8 +3219,8 @@
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
-      <c r="AF13" s="23"/>
-      <c r="AG13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="23"/>
     </row>
     <row r="14" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A14" s="3"/>
@@ -3254,8 +3254,8 @@
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="23"/>
     </row>
     <row r="15" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A15" s="3"/>
@@ -3289,8 +3289,8 @@
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="23"/>
     </row>
     <row r="16" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A16" s="3"/>
@@ -3324,8 +3324,8 @@
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="23"/>
     </row>
     <row r="17" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A17" s="3"/>
@@ -3359,8 +3359,8 @@
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="23"/>
     </row>
     <row r="18" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A18" s="3"/>
@@ -3394,8 +3394,8 @@
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="23"/>
     </row>
     <row r="19" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A19" s="3"/>
@@ -3429,8 +3429,8 @@
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3438,7 +3438,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA12">
       <formula1>"信息窗口,警告弹出,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA13:AA1048576 AG3:AG1048576 Y1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA13:AA1048576 AF3:AF1048576 Y1">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/testCase/c_useCase_file/Aerocheck/initialize/自动化测试用例模板.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/initialize/自动化测试用例模板.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -271,89 +271,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="X1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-用于对比文本信息</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-用例执行状态
-执行
-不执行</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-预期值展示类型
-弹窗警告
-信息窗口
-控件文本</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -377,67 +294,6 @@
           </rPr>
           <t xml:space="preserve">
 在被测模块可能有嵌套窗口</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-警告弹窗
-信息窗口
-控件文本</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>在执行每条用例前都会需要初始化模块
-整个被测模块</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>实际值如果需要从控件中获取
-检查主窗口标题；子窗口标题；唯一标识；唯一标识方法；所操作实例
-例子：</t>
         </r>
       </text>
     </comment>
@@ -571,7 +427,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="139">
   <si>
     <t>用例编号</t>
   </si>
@@ -666,9 +522,6 @@
   </si>
   <si>
     <t>点击</t>
-  </si>
-  <si>
-    <t>最大铺层数文本框输入不能为空！</t>
   </si>
   <si>
     <t>执行</t>
@@ -1126,6 +979,27 @@
   <si>
     <t>测试1；ts(1)</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>定义材料许用值；定义材料许用值；Edit1；方式一；窗口一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大铺层数文本框输入不能为空！</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1664,18 +1538,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="21" max="21" width="14.875" customWidth="1"/>
+    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1686,99 +1561,102 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+        <v>88</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>27</v>
@@ -1836,7 +1714,7 @@
         <v>29</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>29</v>
@@ -1847,45 +1725,48 @@
       <c r="X2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="AC2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE2" s="7">
         <v>2</v>
       </c>
       <c r="AF2" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+        <v>89</v>
+      </c>
+      <c r="AG2" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
@@ -1935,7 +1816,7 @@
         <v>29</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>29</v>
@@ -1947,37 +1828,38 @@
         <v>29</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AA3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="AC3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD3" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE3" s="7">
         <v>2</v>
       </c>
       <c r="AF3" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+        <v>89</v>
+      </c>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>28</v>
@@ -2034,7 +1916,7 @@
         <v>29</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>29</v>
@@ -2046,37 +1928,38 @@
         <v>29</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB4" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="AC4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE4" s="7">
         <v>2</v>
       </c>
       <c r="AF4" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+        <v>89</v>
+      </c>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
@@ -2133,7 +2016,7 @@
         <v>29</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V5" s="6" t="s">
         <v>29</v>
@@ -2145,36 +2028,58 @@
         <v>29</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AA5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB5" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="AC5" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE5" s="7">
         <v>2</v>
       </c>
       <c r="AF5" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG5" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="AG6" s="3"/>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="AG7" s="3"/>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="AG8" s="3"/>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="AG9" s="3"/>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="AG10" s="3"/>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="AG12" s="3"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z5 AG3:AG1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA6:AA1048576 AA1">
@@ -2233,7 +2138,7 @@
     </row>
     <row r="2" spans="1:22" ht="40.5" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2259,7 +2164,7 @@
     </row>
     <row r="3" spans="1:22" ht="40.5" customHeight="1">
       <c r="A3" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -2285,7 +2190,7 @@
     </row>
     <row r="4" spans="1:22" ht="40.5" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -2311,7 +2216,7 @@
     </row>
     <row r="5" spans="1:22" ht="40.5" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -2337,7 +2242,7 @@
     </row>
     <row r="6" spans="1:22" ht="40.5" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -2363,7 +2268,7 @@
     </row>
     <row r="7" spans="1:22" ht="40.5" customHeight="1">
       <c r="A7" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2389,7 +2294,7 @@
     </row>
     <row r="8" spans="1:22" ht="40.5" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -2415,7 +2320,7 @@
     </row>
     <row r="9" spans="1:22" ht="40.5" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2441,7 +2346,7 @@
     </row>
     <row r="10" spans="1:22" ht="40.5" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -2467,7 +2372,7 @@
     </row>
     <row r="11" spans="1:22" ht="40.5" customHeight="1">
       <c r="A11" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -2493,7 +2398,7 @@
     </row>
     <row r="12" spans="1:22" ht="40.5" customHeight="1">
       <c r="A12" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -2519,7 +2424,7 @@
     </row>
     <row r="13" spans="1:22" ht="40.5" customHeight="1">
       <c r="A13" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -2545,7 +2450,7 @@
     </row>
     <row r="14" spans="1:22" ht="40.5" customHeight="1">
       <c r="A14" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -2571,7 +2476,7 @@
     </row>
     <row r="15" spans="1:22" ht="40.5" customHeight="1">
       <c r="A15" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -2615,8 +2520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AH1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -2639,123 +2544,123 @@
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1" ht="183.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:33" customFormat="1" ht="79.5" customHeight="1">
       <c r="A2" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="C2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="G2" s="4">
         <v>0</v>
@@ -2770,70 +2675,70 @@
         <v>4500</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="X2" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="X2" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="Z2" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB2" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="AD2" s="7">
         <v>0</v>
       </c>
       <c r="AE2" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG2" s="7"/>
     </row>
@@ -3535,10 +3440,10 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>20</v>
@@ -3547,7 +3452,7 @@
         <v>21</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>22</v>
@@ -3559,16 +3464,16 @@
         <v>24</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>26</v>
